--- a/biology/Neurosciences/Albert_Moukheiber_(scientifique)/Albert_Moukheiber_(scientifique).xlsx
+++ b/biology/Neurosciences/Albert_Moukheiber_(scientifique)/Albert_Moukheiber_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Moukheiber, né en 1982 , est un docteur en neurosciences psychologue clinicien et chargé de cours français d'origine libanaise.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une licence en psychologie de l'Université américaine de Beyrouth, il poursuit ses études en France où il obtient un doctorat en neurosciences cognitives à l'Université Paris 6 et un master en psychologie clinique, à Paris 5 et Paris 8[1].
-Avec d'autres neuroscientifiques, il fonde l'association Chiasma qui organise des conférences et ateliers pour expliquer les mécanismes du cerveau qui sous-tendent nos raisonnements et notre vision du monde[2].
-En 2019, il publie le livre Votre cerveau vous joue des tours dans lequel il aborde le fonctionnement du cerveau et les biais cognitifs en affirmant que « moins on connaît un sujet, moins on est capable de mesurer à quel point on ne maîtrise pas le sujet en question ». Selon lui, la connaissance de ces mécanismes permettrait de refaire société en se basant « sur un socle commun de réalité », notamment en ce qui concerne les vaccins et le réchauffement climatique[3],[4],[5].
-Il s'intéresse à la question des fausses informations dans le cadre de la pandémie de Covid-19[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une licence en psychologie de l'Université américaine de Beyrouth, il poursuit ses études en France où il obtient un doctorat en neurosciences cognitives à l'Université Paris 6 et un master en psychologie clinique, à Paris 5 et Paris 8.
+Avec d'autres neuroscientifiques, il fonde l'association Chiasma qui organise des conférences et ateliers pour expliquer les mécanismes du cerveau qui sous-tendent nos raisonnements et notre vision du monde.
+En 2019, il publie le livre Votre cerveau vous joue des tours dans lequel il aborde le fonctionnement du cerveau et les biais cognitifs en affirmant que « moins on connaît un sujet, moins on est capable de mesurer à quel point on ne maîtrise pas le sujet en question ». Selon lui, la connaissance de ces mécanismes permettrait de refaire société en se basant « sur un socle commun de réalité », notamment en ce qui concerne les vaccins et le réchauffement climatique.
+Il s'intéresse à la question des fausses informations dans le cadre de la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Votre cerveau vous joue des tours, Allary, 2019, 240 p. (ISBN 978-2370732606)
 Avec Raphaël Martin, Le cerveau pas bête, Bayard Jeunesse, 2023, 72 p. (ISBN 979-1036344107)</t>
